--- a/500all/speech_level/speeches_CHRG-114hhrg97726.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97726.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400154</t>
   </si>
   <si>
-    <t>Bob Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Good morning. The Judiciary Committee will come to order, and without objection, the Chair is authorized to declare recesses of the Committee at any time. We welcome everyone to this morning's legislative hearing on H.R. 699, the ``Email Privacy Act,'' and I'll begin by recognizing myself for an opening statement.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400080</t>
   </si>
   <si>
-    <t>John Conyers, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Goodlatte, Members of the Committee, and our honored witnesses here for the hearing, and those who are in 2141 to participate in the listening of this very important measure.    H.R. 699, the ``Email Privacy Act,'' enjoys I'm pleased to say, the overwhelming bipartisan support in the House. As of this morning, the bill has earned 304 cosponsors; 191 Republicans, 113 Democrats; and 27 Members of the House Judiciary Committee.    Now, what do all of these Members have in common? First of all, we agree that the Electronic Communications Privacy Act is outdated and provides unjustifiably inconsistent standards for government access to our stored communication. This statute continues to serve as one of the main guarantees of our digital privacy, but the law was designed in 1986, when few of us used email, and even fewer imagined a world in which we could so freely share information online.    The consequences of applying a 30-year-old understanding of technology to modern communications are inconsistent, at best. For example, the law seems to apply different standards for government access to the same email at different points in its lifecycle, when it's drafted, when it's transmitted, when it's opened by its recipient, and when it is archived in the cloud. We are not well served by a law whose application is unpredictable and that the courts have had great difficulty in interpreting. Because of the rapid pace of technological change, this situation will only get worse if we do not act.    Secondly, the sponsors of this bill agree that the government should be obligated to show probable cause before it can require a provider to disclose the content in its customer's mail, no matter how old the message is. This standard is consistent with the holding of the Sixth Circuit court in the Warshak case in 2010. That case motivated the Department of Justice to voluntarily adopt a warrants for email standard. It also effectively ended the unconstitutional use of subpoenas to compel third parties to produce content in civil enforcement actions.    Current law requires the government to show probable cause and obtain a warrant only for email that has been in storage for 180 days or less. But the government can use and subpoena for the same email if it's stored for 1 day longer. This is no longer acceptable to most Americans. As the Sixth Circuit rightly observed, citizens have the same reasonable expectation of privacy in their email before and after the 180-day mark, and as the Department of Justice testified soon thereafter, there is no principal basis to treat email less than 180 days old differently than email more than 180 days old.    Thirdly, the sponsors of H.R. 699 all agree that current law is not adequate to protect new forms of digital communication. Content is content. Our expectation of privacy does not diminish merely because Congress didn't think of the medium when it last visited the statute. The law should protect electronic communications across the board, email, text messages, private messages of all sorts, and other forms of digital information stored in the cloud.    Finally, the sponsors of this bill agree that we must act without delay. We have an obligation to provide clear standards to law enforcement with respect to emerging technologies. We should also recognize that American businesses cannot sustain these new technologies if consumers cannot trust them.    As the Committee takes up this bill, we should ensure that it does not conflict with the basic notion that the government's seizure of our email without a warrant violates the Fourth Amendment, but we should note that this principle has already taken hold across the Federal Government. The Department of Justice already uses warrants for email in criminal cases. The government stopped using lesser process in the civil context years ago.    In short, Mr. Chairman and Members, this legislation accomplishes two vital tasks. It updates the statute for modern use, and it does so without any significant interruption to law enforcement. We should all come together on this bill as soon as possible, and I want to personally thank the witnesses for being with us today and for their testimony, and I urge my colleagues to give this measure their full support, and I thank the Chairman.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Ceresney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ceresney. You are.</t>
   </si>
   <si>
@@ -91,27 +82,18 @@
     <t xml:space="preserve">    Mr. Goodlatte. Thank you. Mr. Cook, welcome.</t>
   </si>
   <si>
-    <t>Cook</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cook. Chairman Goodlatte, Ranking Member Conyers, and Members of the Committee, first of all, thank you very much for giving me the opportunity to address you and to give you the perspective of career prosecutors with respect to H.R. 699.    And let me get right to it. The importance of the Stored Communications Act or SCA, to the law enforcement community simply cannot be overstated. At issue are records of contact and communication by Internet and cell service providers. To understand the importance of these records to the law enforcement world, I'd ask you to pause and think for a minute about how these powerful resources are being used in the criminal world.    Child predators troll the Internet 24/7 for children to lure them away from their parents and their homes. Purveyors of child pornography often, with graphic pictures of children, sometimes infants being sexually molested, sell those images electronically across the Internet. Terrorists boast of their horrific crimes posting pictures of those online, and international drug dealers, gangs, and others involved in organized crime communicate effectively with coconspirators through email and texts.    When you realize how pervasive this technology is in the criminal world, you quickly realize that the evidence covered by the SCA, or the Stored Communications Act, is central to our ability to solve virtually every type of crime. And our ability to access this information covered by the SCA and to access it quickly, can literally mean the difference between life and death. It can mean the difference between recovering a child alive and returning her to her parents, instead of the child being a victim of a vicious predator determined to commit unspeakable crimes.    And even beyond the critical role of stopping violent crimes in progress and rescuing victims, evidence covered by the Stored Communications Act is often central to the search for truth in our courts and our ability to bring those most dangerous in our community to justice.    But here are the problems with ECPA, and both the opening statements by the Chair and Ranking Member recognize this, ECPA and the Stored Communications Act were enacted in 1986. That was before much of this technology was in use, before any of us had any idea of its capabilities. And to continue to use a statutory framework with definitions that were enacted before any of this technology was known is just simply not workable. It does not fit.    That brings me back to H.R. 699. The primary goal of this bill seems to be to codify, correctly we would submit, Warshak and the extension of the Fourth Amendment protections to email in storage, and text in storage over 180 days. This is an issue on which we can all agree, but the bill goes farther. It goes much farther, and we respectfully submit, demonstrates a need for a comprehensive, not piecemeal reform. In my written testimony, I have addressed a number, but by far, not all of the concerns that we have.    I'd like to highlight two places where this bill creates or perpetuates limitations on law enforcement that far exceed those imposed, far exceed those imposed anywhere else in the law, burdens greater than those related to the search of a home, burdens greater than those related to the search of a body cavity.    While the Email Privacy Act expands Fourth Amendment protections and imposes a warrant requirement to compel disclosure of stored email or text, the statute does not recognize any of the well-established exceptions to the warrant requirement that would be applicable in every other circumstance. I know of no other area of the law where this is the case.    Second, the Email Privacy Act also imposes notice requirements unlike those found anywhere else in the law. The government has long been required to serve a copy of the search warrant on the person at the property being searched, and that requirement makes sense. It demonstrates to the homeowner or the business operator the authority for the search, and that homeowner or property owner is then free, in the usual course, to tell whoever they wish about it.    But the government has never been required and the law has never required the government to reach out to third parties and notify them of the search. It's not a discovery provision designed to alert those who are under criminal investigation of the ongoing investigation. And although there are specific, in fact, two-and-a-half pages of rules that would control when that can be extended, this simply is a rule that has never been imposed in any other context.    In conclusion, I'd just like to say that criminals have, and we have seen that they have unlimited access to these modern and powerful resources, and they make full use of them. For us on the law enforcement side to do our job, access to this information is critical. Information covered by the SCA has to be accessible to us.    That access, we respectfully recognize, of course, should be consistent with the privacy protections afforded by the Constitution, but Congress should not, as this bill proposes, impose new unprecedented and unwarranted limitations that will tie our hands in doing our jobs. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Cook.    Mr. Littlehale, welcome.</t>
   </si>
   <si>
-    <t>Littlehale</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Littlehale. Chairman Goodlatte, Ranking Member Conyers, Members of the Committee, thank you for inviting me to testify. I'm a technical investigator in Tennessee, and I serve on the technology committee of the Association of State Criminal Investigative Agencies. As you know, State and local law enforcement agencies work the vast majority of criminal investigations in this country. Lawful access to electronic evidence is critical for us in those cases every day, and H.R. 699, in its current form, does not sufficiently protect that access.    To give you some sense of the volume of potential electronic evidence in our cases, consider a stranger abduction of a 4-day-old infant in Nashville. Over the course of an intensive 4-day investigation, my unit processed and explored leads on hundreds of telephone numbers, social media accounts, computers, and mobile devices. At a time when every second counts, my fellow agents and I spend a significant amount of time simply trying to make contact with various providers to declare an emergency, calling and recalling to make sure that our process was received and expedited. We had to process hundreds of leads, any one of which could have been the key to finding the victim.    Volume alone isn't the only issue. We must also contend with a lack of structure governing responsiveness. In another Amber alert investigation, we received a lead that the creator of a posting on a social media platform may have information about the child's location. When we contacted the provider, they noted that ECPA's emergency provision is permissive rather than mandatory and demanded legal process before they turn over the records.    We know H.R. 699 has a great deal of support, but we believe much of that support is based on only one part of the bill, creating a uniform probable cause standard for stored content. Advocates for ECPA reform argue that the contents of an email or document stored in the cloud should be subject to the same protections as a letter in your desk drawer at home. H.R. 699 would do that, but it goes farther to create an enhanced statutory framework of proof standards, notice requirements, and expand the definitions of covered records that you would give greater protection for records stored by third-party service providers than for that envelope in your desk. And it would do this without extending any of the tools that law enforcement can use to obtain evidence in the physical world after we demonstrate probable cause to a neutral magistrate and get a warrant, like law enforcement controlled warrant exceptions and warrant execution timelines.    Bringing ECPA into balance should put the physical and digital worlds on the same plane, not favor digital evidence over physical evidence. H.R. 699 should be amended to reflect a more balanced approach that protects privacy and ensures that law enforcement can access the evidence it needs, and when we get a warrant, it should behave like a warrant not a subpoena with a higher proof requirement.    Demonstrating probable cause to a neutral magistrate should allow us to gather evidence with the same timeliness and effectiveness that we would expect in the real world.    The notice provisions in the bill would require us to describe our case to targets of a criminal investigation, even as we're pursuing leads. That endangers investigations. We also urge the Committee to carefully balance the need for notification against the resource burden it places on us. Time spent complying with arbitrary timelines means less time investigating crimes and could compromise sensitive information.    I urge you to ensure that whatever standard of proof you decide is appropriate, you also ensure that law enforcement can access the evidence we need reliably and quickly. Speed is important in all investigations, and ECPA reform should impose structure on service providers' response to legal demands. A requirement for automated exchange of legal process and records with service providers would help speed access to evidence, provide transparency, and authenticate law enforcement process.    Warrants under EPCA should look like warrants everywhere else. That means that standard exceptions to the warrant requirement like exigency and consent should exist, and law enforcement should control whether or not they are invoked, just like we can do when executing warrants in the physical world. Everybody agrees that law enforcement should have rapid access to communications evidence in a life-threatening emergency, but that is not always the reality.    Industry and privacy groups suggest that some law enforcement emergency declarations are unfounded, but those are unreviewed unilateral determinations. Isn't law enforcement on the ground in the best position to assess the presence or absence of defensible exigency in a particular case? We already do it in other contexts all the time, and there is an existing body of case law in the courts to determine whether or not we are correct.    In closing, I want to re-emphasize how important both aspects of ECPA are to our Nation's criminal investigators. We agree that ECPA should be updated, but any effort to reform it should reflect its original balance between assuring law enforcement access to evidence through legal demands and protecting customer privacy.    The balance proposed by H.R. 699 goes too far in extending all the burdens of the traditional search warrant scheme to a much broader range of records without any of the common law exceptions, while requiring us to give unprecedented notice to investigative targets just because the evidence we're seeking is electronic.    Thank you for having me here today, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you.    Mr. Calabrese, I think maybe I have your pronunciation correct now. Is that right?</t>
   </si>
   <si>
-    <t>Calabrese</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Calabrese. You actual were right the first time. It's Calabrese, but I'll take it however you give it. Thank you.</t>
   </si>
   <si>
@@ -124,9 +106,6 @@
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Calabrese.    And Mr. Salgado, welcome.</t>
   </si>
   <si>
-    <t>Salgado</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salgado. Chairman Goodlatte, Ranking Member Conyers, and Members of the Committee, thank you for the opportunity to appear before you today. My name is Richard Salgado. As director----</t>
   </si>
   <si>
@@ -139,9 +118,6 @@
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Salgado.    Mr. Rosenzweig, welcome.</t>
   </si>
   <si>
-    <t>Rosenzweig</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rosenzweig. Thank you very much, Mr. Chairman, Ranking Member Conyers. I appreciate very much the opportunity to come before you today to testify about the Email Privacy Act and the underlying principles of balancing privacy and law enforcement needs that are inherent here.    As you know, I am a former prosecutor, having spent 12 years in various roles throughout government. I then became a deputy assistant secretary for the Department of Homeland Security with significant responsibility for our counterterrorism efforts, and today I operate a small consulting company, and I serve as a visiting fellow at the Heritage Foundation. From this perspective, I am pleased to acknowledge that everybody on this panel agrees that a warrant requirement for content of email is an appropriate response to changing technology.    It seems to me almost beyond belief that notwithstanding the uniform agreement of that principle, we have been unable to work out the details of how to implement that as a matter of statutory law. To my mind, that principle has its roots not in our agreement here, but rather in the longstanding understanding of the privacy of one's personal papers and effects that goes back to the very foundings of this Nation.    The most famous case of which was the Wilkes versus Wood case. Wilkes was a protestor, much like some of the people in America today, whose papers and effects were the subject of a general warrant. That search by the Crown at that time was one of the most salient effects that drove the Revolutionary movement. Likewise, the Writs of Assistance case, which James Otis famously lost, unfortunately, in Massachusetts, was what John Adams said was the spark that lit the flame of the Revolution.    Today, email are our private papers. The ISPs that transmit my email to you are the equivalent, functional equivalent of the post office, and the cloud storage system that I use to store that information is the functional equivalent of the file cabinet in my office. There is no ground that I can see that is consistent with what the Framers understood our personal privacy and papers to be to exclude that information from the full protection of the warrant.    And I would add that our history of Fourth Amendment understanding has followed the development of technology by consistently applying that same principle. When the Supreme Court was faced with the idea of telephones in the Katz case back in the 1960's, they saw that those types of personal communications ought to be subject to the exact same sorts of constitutional protections. This notwithstanding the fact that of course telephones were unknown to the Founders, and over the dissent of Justice Black who said, you know, history says there are no telephones, if it's not in the Fourth Amendment, it shouldn't be in the Fourth Amendment.    Likewise, as Mr. Salgado has said, we've recently come to understand that the cell phones in our pockets are not just telephones. They are now mini-computers that contain the stuff and substance of everything that we know and understand, so, too, I would submit, with the content of our email communications and our stored data in cloud service providers, whether it's Google, or Microsoft, or Yahoo, or Dropbox, this is where we store our data today.    So what's the debate? What's left? All that I hear that is left is the application of exceptions that are carve outs and restrictions on this general warrant requirement. And to some degree, that has an intellectual appeal to it, doesn't it, because we've had exceptions to the Fourth Amendment for awhile, but I doubt that that's really what the advocates for the exceptions are suggesting, because I certainly have not heard any of them suggest that we should adopt as well the Fourth Amendment suppression rules for when evidence is wrongfully collected in violation of these exception requirements.    The truth is that we've had no--when ECPA was first passed in the 1980's, no exception for an emergency at all. The current statute was added in 2001, post 9/11 at the suggestions of the Department of Justice. So it's kind of passing strange that we would see that exception and expansion of it held out now as a reason to oppose the fundamental changes that are necessary in light of technology.    I would submit to you that the time is ripe for change and the principle is clear. In the normal law enforcement context, police, FBI, and law enforcement officers should have no more access to stored email than they do to our stored private letters. I would urge this Committee to give the bill before you plenary consideration in a markup and move it to the floor for consideration where these issues can be hashed out. And with that, I thank you very much. I look forward to answering your questions.</t>
   </si>
   <si>
@@ -259,9 +235,6 @@
     <t>400365</t>
   </si>
   <si>
-    <t>F. James Sensenbrenner, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you, Mr. Chairman.    In the Warshak case in 2010, the Sixth Circuit ruled the content of America's emails is protected by the Fourth Amendment. I agree with that holding. Since that decision, the SEC has been unable to subpoena email content from service providers.    Now, Mr. Ceresney, I've read your testimony and listened to it. Did you write it in 2009?</t>
   </si>
   <si>
@@ -367,9 +340,6 @@
     <t>400245</t>
   </si>
   <si>
-    <t>Zoe Lofgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Mr. Chairman. And I'm glad that we're having this hearing today. As had been mentioned at the beginning of the hearing, over 300 Members of Congress are sponsoring the legislation. So it hasn't been a close call for most of us.    There is a competing--not a competing bill, a bill that encompasses the provisions in this bill, but also goes to geolocation. And I'm wondering, Mr. Cook, the DOJ recently enacted a policy requiring a warrant before deploying a cell site simulator, like a Stingray, to locate a suspect using their cell phone. Does your association support that policy?</t>
   </si>
   <si>
@@ -424,18 +394,12 @@
     <t>412531</t>
   </si>
   <si>
-    <t>Doug Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins [presiding]. The gentlelady's time has expired.    The Chair now recognizes the gentleman from Iowa, Mr. King.</t>
   </si>
   <si>
     <t>400220</t>
   </si>
   <si>
-    <t>Steve King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman.    I thank the witnesses for your testimony.    First, it was mentioned that there's a general agreement among the panel, I believe, and others, that except for a few people who would like to expand the dragnet. I would ask Mr. Cook and Mr. Littlehale, is there anything in this bill that expands the dragnet?    Mr. Cook?</t>
   </si>
   <si>
@@ -517,9 +481,6 @@
     <t>412505</t>
   </si>
   <si>
-    <t>Suzan K. DelBene</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Mr. Chair. And I just want to thank the Chair for holding this hearing and to all of you for taking the time to be here with us today. Mr. Ceresney, do you dispute the continued availability of preservation orders and court interference to enforce administrative subpoenas of targets of SEC investigations should the Email Privacy Act pass?</t>
   </si>
   <si>
@@ -583,9 +544,6 @@
     <t>400651</t>
   </si>
   <si>
-    <t>Louie Gohmert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you, Mr. Chairman. Thank you to the witnesses for being here. For anyone that can answer, if someone deletes an email that he or she has already sent out, would the ISP be able to retrieve that at some point?</t>
   </si>
   <si>
@@ -619,9 +577,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman. And thank you to our witnesses for sharing your expertise and your diverse perspectives with us today. I believe that all of us assembled here, both those of us on the Committee and our assembled panel of witnesses, recognize that technology often evolves much faster than the law. This, in part, is a testament to the rapid pace of American innovation. But it also presents a gap that must be addressed. And the Email Privacy Act represents an important step forward to closing this gap and preserving privacy protections for Americans. And it's no surprise to me that it's broadly supported by the American people.    I want to begin with you, Mr. Ceresney. In your written testimony, you state if the bill becomes law without modification, the SEC and other civil law enforcement agencies would be denied the ability to obtain critical evidence from ISPs. This phrasing suggests to me that you are engaged in some activity today that would be blocked by this legislation.    And so, my first question is, does the SEC currently use subpoenas to obtain the content of communications from Internet service providers?</t>
   </si>
   <si>
@@ -673,9 +628,6 @@
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. I thank the Chairman. I thank all of you all for being here. As my friend Mr. Gohmert was, I used to be a criminal court judge in Texas for 22 years, felony cases, 20,000 cases or more. All that time, constantly I had law enforcement officers come to me with a request for me to sign a search warrant based upon their affidavits. And I signed a lot. And some I did not sign because of the basics of the Fourth Amendment.    The Fourth Amendment makes us different than every other country on Earth because of our history. It's uniquely United States history, goes back to the British who wanted general warrants to kick in doors of warehouses in Boston to see if the American colonists were storing demon rum they hadn't paid taxes on yet. To me, a general warrant is the same as a court order. So we have specific warrants. And like I said, I signed a lot of them.    It makes no sense to me that the right of privacy is protected for 6 months but it's not protected more than 6 months. I send a letter, snail mail. And I put that in an envelope. And I send it off to one of my grandkids somewhere. It floats around in America from post office to post office and who else knows where until it gets to grandson. It's protected. Generally it's protected. It's a form of communication.    When we use emails or store in the cloud, it's a form of communication wherever the cloud may be. So I think it's Congress' responsibility to determine what the expectation of privacy is. It's not, God bless them, Federal judges' responsibility. It's Congress' responsibility to say this is an expectation of privacy for Americans. And when we enter the digital age, I don't buy the argument, well, we're in the digital age, you got to give up some of your constitutional rights so we can have government investigate things.    Whether it's civil investigation, whether it's criminal investigation, I don't buy it. Because the Fourth Amendment gets in the way of that. I think it is one of the most important rights that we have. So it's our duty to set up a standard. Over 300 Members have signed on to Mr. Yoder's bill. It hasn't come up for a vote. Ms. Lofgren and I filed a similar bill in 2013. We want to get a vote on, I want to get a vote on Mr. Yoder's bill. Three hundred and four Members of Congress agreeing on something? Really? And I think most Members, Republicans and Democrats, see the importance of the privacy.    Mr. Calabrese, let me start with you. I have a lot of questions. And I know I have only 5 minutes. The Warshak case, the SEC lost the Warshak case. They did not appeal that, did they?</t>
   </si>
   <si>
@@ -736,9 +688,6 @@
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. I thank you so very much, Mr. Chairman. And I thank the witnesses. I want to engage in a give and take with Mr. Calabrese, Mr. Salgado, and Mr. Rosenzweig if I might. But let me just ask a pointed question to Mr. Cook. Let me thank all of you for your service. And acknowledge that the Warshak case, Mr. Ceresney, I will not attribute your win or loss, I will just take the case as a Sixth Circuit case.    I just want to ask, since that case, the Warshak case, Mr. Cook, do you know whether or not the Department of Justice has used anything less than a warrant based on probable cause to compel a third-party provider to produce the contents of a communications? You all adhere to that?</t>
   </si>
   <si>
@@ -802,9 +751,6 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Chairman. Good afternoon, gentlemen. My question here is going to be directed to Mr. Rosenzweig and Mr. Salgado in that order. Please speak to the trends of users moving to encrypted services, often hosted overseas in order to seek privacy, and how this might make us less safe than if we had a clear framework in place. Do you understand my question?</t>
   </si>
   <si>
@@ -838,9 +784,6 @@
     <t>412561</t>
   </si>
   <si>
-    <t>Hakeem S. Jeffries</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jeffries. I thank the distinguished Chair. And I thank the witnesses for your presence here today.    I want to follow up on that discussion from my good friend from the great State of--the Commonwealth of Pennsylvania. Mr. Cook, I know you've expressed concerns as it relates to the notice requirement. And I think in your testimony you refer to the provisions as a red alert tool that could notify an individual that he or she is under investigation. Is that right?</t>
   </si>
   <si>
@@ -896,9 +839,6 @@
   </si>
   <si>
     <t>412653</t>
-  </si>
-  <si>
-    <t>John Ratcliffe</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman. As a former U.S. attorney, I always appreciate and listen to concerns expressed by law enforcement whenever Congress proposes changes to a law that may impact your ability to do your job because you're the folks that are working so hard to keep us safe, and I want to certainly make sure you have the tools and resources and capability necessary to do that effectively.    That being said, I also strongly believe that in an increasingly connected, complex, digital society, our laws have to be modernized to make sure they reflect the current technological landscape. As our technology is evolving, this extremely personal information is being stored on our computers, on our smartphones, on our Fitbits, where we travel, what we eat, what we read, where we shop, who we communicate with, all highly personal information, and so we've got to make sure we've got robust protections in place for that.    I certainly don't believe that the Fourth Amendment protections that we all hold so dear and the needs of law enforcement are mutually exclusive. And I appreciate all the witnesses being here today to have a thoughtful discussion about that.    Mr. Ceresney, I want to start with you because, from my perspective, it seems like that the SEC has been the most vocal civilian agency in expressing concerns about modifying ECPA, but the SEC doesn't appear to have served a subpoena on a commercial provider in 5 years since the Warshak decision. And despite that, the SEC's annual report last year, 2014, touted a record year, cutting edge enforcement actions, more cases than ever before, a number of first ever cases that span the securities industry.    And I know that Chairman White has testified that the SEC isn't issuing subpoenas to third-party service providers for content. So given the record number of cases, enforcement actions, and first ever cases brought by the SEC, all done without encroaching on Fourth Amendment rights of Americans, why is the SEC asking Congress to give it the authority to get content on something less than a warrant?</t>
@@ -1429,11 +1369,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1455,11 +1393,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1479,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1507,11 +1441,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1531,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1559,11 +1489,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1583,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1611,11 +1537,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1635,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1663,11 +1585,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1687,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1715,11 +1633,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1739,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1767,11 +1681,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1791,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1819,11 +1729,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1843,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1871,11 +1777,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1895,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1923,11 +1825,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1947,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1975,11 +1873,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1999,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>36</v>
-      </c>
-      <c r="H24" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2027,11 +1921,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2051,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2079,11 +1969,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2103,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2131,11 +2017,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2155,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2183,11 +2065,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2207,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2235,11 +2113,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2259,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2287,11 +2161,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2311,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2339,11 +2209,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2363,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2391,11 +2257,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2415,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2443,11 +2305,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2467,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2495,11 +2353,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2519,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2547,11 +2401,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2571,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2599,11 +2449,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2623,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2649,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2675,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2701,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2727,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2753,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2779,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2805,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2831,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2857,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2883,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2911,11 +2737,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2935,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2961,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2987,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3013,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3039,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3065,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3091,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>80</v>
-      </c>
-      <c r="G66" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3117,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3143,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>80</v>
-      </c>
-      <c r="G68" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
         <v>81</v>
-      </c>
-      <c r="H68" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3169,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3195,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3221,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3247,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3273,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3299,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>80</v>
-      </c>
-      <c r="G74" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3325,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3351,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>80</v>
-      </c>
-      <c r="G76" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3377,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3403,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>80</v>
-      </c>
-      <c r="G78" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3429,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3455,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>80</v>
-      </c>
-      <c r="G80" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3481,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3507,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>80</v>
-      </c>
-      <c r="G82" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3533,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3559,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>80</v>
-      </c>
-      <c r="G84" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3585,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3611,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>80</v>
-      </c>
-      <c r="G86" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3637,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3663,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>80</v>
-      </c>
-      <c r="G88" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3689,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3715,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>80</v>
-      </c>
-      <c r="G90" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3741,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3767,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>80</v>
-      </c>
-      <c r="G92" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3795,11 +3553,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3819,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>116</v>
-      </c>
-      <c r="G94" t="s">
-        <v>117</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3845,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3871,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>116</v>
-      </c>
-      <c r="G96" t="s">
-        <v>117</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3897,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3923,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>116</v>
-      </c>
-      <c r="G98" t="s">
-        <v>117</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3949,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3975,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>116</v>
-      </c>
-      <c r="G100" t="s">
-        <v>117</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4001,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4027,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
+        <v>107</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
         <v>116</v>
-      </c>
-      <c r="G102" t="s">
-        <v>117</v>
-      </c>
-      <c r="H102" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4053,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4079,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>116</v>
-      </c>
-      <c r="G104" t="s">
-        <v>117</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4105,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4131,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>116</v>
-      </c>
-      <c r="G106" t="s">
-        <v>117</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4157,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4183,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>116</v>
-      </c>
-      <c r="G108" t="s">
-        <v>117</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4209,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4235,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>116</v>
-      </c>
-      <c r="G110" t="s">
-        <v>117</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4261,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>135</v>
-      </c>
-      <c r="G111" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4287,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>138</v>
-      </c>
-      <c r="G112" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4313,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4339,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>138</v>
-      </c>
-      <c r="G114" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4365,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4391,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>138</v>
-      </c>
-      <c r="G116" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4417,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4443,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>138</v>
-      </c>
-      <c r="G118" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4469,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4495,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>138</v>
-      </c>
-      <c r="G120" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4521,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4547,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
+        <v>127</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
         <v>138</v>
-      </c>
-      <c r="G122" t="s">
-        <v>139</v>
-      </c>
-      <c r="H122" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4573,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4599,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>138</v>
-      </c>
-      <c r="G124" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4625,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4651,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>138</v>
-      </c>
-      <c r="G126" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4677,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4703,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>138</v>
-      </c>
-      <c r="G128" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4729,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4755,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>138</v>
-      </c>
-      <c r="G130" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4781,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4807,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>138</v>
-      </c>
-      <c r="G132" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4833,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4859,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>138</v>
-      </c>
-      <c r="G134" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4885,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4911,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>138</v>
-      </c>
-      <c r="G136" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4937,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>135</v>
-      </c>
-      <c r="G137" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4963,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>166</v>
-      </c>
-      <c r="G138" t="s">
-        <v>167</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4989,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5015,13 +4679,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>166</v>
-      </c>
-      <c r="G140" t="s">
-        <v>167</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5041,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5067,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>166</v>
-      </c>
-      <c r="G142" t="s">
-        <v>167</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5093,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5119,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>166</v>
-      </c>
-      <c r="G144" t="s">
-        <v>167</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5145,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5171,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>166</v>
-      </c>
-      <c r="G146" t="s">
-        <v>167</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5197,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5223,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>166</v>
-      </c>
-      <c r="G148" t="s">
-        <v>167</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5249,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5275,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>166</v>
-      </c>
-      <c r="G150" t="s">
+        <v>154</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
         <v>167</v>
-      </c>
-      <c r="H150" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5301,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5327,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>166</v>
-      </c>
-      <c r="G152" t="s">
-        <v>167</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5353,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5379,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>166</v>
-      </c>
-      <c r="G154" t="s">
-        <v>167</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5405,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5431,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>166</v>
-      </c>
-      <c r="G156" t="s">
-        <v>167</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5457,13 +5087,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>135</v>
-      </c>
-      <c r="G157" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5483,13 +5111,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>188</v>
-      </c>
-      <c r="G158" t="s">
-        <v>189</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5509,13 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5535,13 +5159,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>188</v>
-      </c>
-      <c r="G160" t="s">
-        <v>189</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5561,13 +5183,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5587,13 +5207,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>188</v>
-      </c>
-      <c r="G162" t="s">
-        <v>189</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5613,13 +5231,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>135</v>
-      </c>
-      <c r="G163" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5639,13 +5255,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>188</v>
-      </c>
-      <c r="G164" t="s">
-        <v>189</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5665,13 +5279,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5691,13 +5303,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>188</v>
-      </c>
-      <c r="G166" t="s">
-        <v>189</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5717,13 +5327,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>135</v>
-      </c>
-      <c r="G167" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5743,13 +5351,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>200</v>
-      </c>
-      <c r="G168" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5769,13 +5375,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5795,13 +5399,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>200</v>
-      </c>
-      <c r="G170" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5821,13 +5423,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>19</v>
-      </c>
-      <c r="G171" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5847,13 +5447,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>200</v>
-      </c>
-      <c r="G172" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5873,13 +5471,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>19</v>
-      </c>
-      <c r="G173" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5899,13 +5495,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>200</v>
-      </c>
-      <c r="G174" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5925,13 +5519,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>19</v>
-      </c>
-      <c r="G175" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5951,13 +5543,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>200</v>
-      </c>
-      <c r="G176" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5977,13 +5567,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6003,13 +5591,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>200</v>
-      </c>
-      <c r="G178" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6029,13 +5615,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>19</v>
-      </c>
-      <c r="G179" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6055,13 +5639,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>200</v>
-      </c>
-      <c r="G180" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6081,13 +5663,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>19</v>
-      </c>
-      <c r="G181" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6107,13 +5687,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>200</v>
-      </c>
-      <c r="G182" t="s">
+        <v>186</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
         <v>201</v>
-      </c>
-      <c r="H182" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6133,13 +5711,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>135</v>
-      </c>
-      <c r="G183" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6159,13 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>218</v>
-      </c>
-      <c r="G184" t="s">
-        <v>219</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6185,13 +5759,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>19</v>
-      </c>
-      <c r="G185" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6211,13 +5783,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>218</v>
-      </c>
-      <c r="G186" t="s">
-        <v>219</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6237,13 +5807,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>19</v>
-      </c>
-      <c r="G187" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6263,13 +5831,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>19</v>
-      </c>
-      <c r="G188" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6289,13 +5855,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>218</v>
-      </c>
-      <c r="G189" t="s">
-        <v>219</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6315,13 +5879,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>19</v>
-      </c>
-      <c r="G190" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6341,13 +5903,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>218</v>
-      </c>
-      <c r="G191" t="s">
-        <v>219</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6367,13 +5927,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>19</v>
-      </c>
-      <c r="G192" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6393,13 +5951,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>218</v>
-      </c>
-      <c r="G193" t="s">
-        <v>219</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6419,13 +5975,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>19</v>
-      </c>
-      <c r="G194" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6445,13 +5999,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>135</v>
-      </c>
-      <c r="G195" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6471,13 +6023,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>19</v>
-      </c>
-      <c r="G196" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6497,13 +6047,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>218</v>
-      </c>
-      <c r="G197" t="s">
-        <v>219</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6523,13 +6071,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>135</v>
-      </c>
-      <c r="G198" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6549,13 +6095,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>218</v>
-      </c>
-      <c r="G199" t="s">
+        <v>203</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
         <v>219</v>
-      </c>
-      <c r="H199" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6575,13 +6119,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>135</v>
-      </c>
-      <c r="G200" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6601,13 +6143,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>218</v>
-      </c>
-      <c r="G201" t="s">
-        <v>219</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6627,13 +6167,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>135</v>
-      </c>
-      <c r="G202" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6653,13 +6191,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>239</v>
-      </c>
-      <c r="G203" t="s">
-        <v>240</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6679,13 +6215,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>19</v>
-      </c>
-      <c r="G204" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6705,13 +6239,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>239</v>
-      </c>
-      <c r="G205" t="s">
-        <v>240</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6731,13 +6263,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>19</v>
-      </c>
-      <c r="G206" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6757,13 +6287,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>239</v>
-      </c>
-      <c r="G207" t="s">
-        <v>240</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6783,13 +6311,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>19</v>
-      </c>
-      <c r="G208" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6809,13 +6335,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>239</v>
-      </c>
-      <c r="G209" t="s">
-        <v>240</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6835,13 +6359,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>19</v>
-      </c>
-      <c r="G210" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6861,13 +6383,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>239</v>
-      </c>
-      <c r="G211" t="s">
-        <v>240</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6887,13 +6407,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>19</v>
-      </c>
-      <c r="G212" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6913,13 +6431,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>239</v>
-      </c>
-      <c r="G213" t="s">
-        <v>240</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6939,13 +6455,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>19</v>
-      </c>
-      <c r="G214" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6965,13 +6479,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>239</v>
-      </c>
-      <c r="G215" t="s">
-        <v>240</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6991,13 +6503,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>19</v>
-      </c>
-      <c r="G216" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7017,13 +6527,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>239</v>
-      </c>
-      <c r="G217" t="s">
-        <v>240</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7043,13 +6551,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>135</v>
-      </c>
-      <c r="G218" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7069,13 +6575,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>239</v>
-      </c>
-      <c r="G219" t="s">
+        <v>223</v>
+      </c>
+      <c r="G219" t="s"/>
+      <c r="H219" t="s">
         <v>240</v>
-      </c>
-      <c r="H219" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7095,13 +6599,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>19</v>
-      </c>
-      <c r="G220" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7121,13 +6623,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>239</v>
-      </c>
-      <c r="G221" t="s">
-        <v>240</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7147,13 +6647,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>135</v>
-      </c>
-      <c r="G222" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7173,13 +6671,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>261</v>
-      </c>
-      <c r="G223" t="s">
-        <v>262</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7199,13 +6695,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>19</v>
-      </c>
-      <c r="G224" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7225,13 +6719,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>261</v>
-      </c>
-      <c r="G225" t="s">
-        <v>262</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7251,13 +6743,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>19</v>
-      </c>
-      <c r="G226" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7277,13 +6767,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>261</v>
-      </c>
-      <c r="G227" t="s">
-        <v>262</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7303,13 +6791,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>19</v>
-      </c>
-      <c r="G228" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7329,13 +6815,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>261</v>
-      </c>
-      <c r="G229" t="s">
-        <v>262</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7355,13 +6839,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>19</v>
-      </c>
-      <c r="G230" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7381,13 +6863,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>261</v>
-      </c>
-      <c r="G231" t="s">
-        <v>262</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7407,13 +6887,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>135</v>
-      </c>
-      <c r="G232" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7433,13 +6911,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>273</v>
-      </c>
-      <c r="G233" t="s">
-        <v>274</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7459,13 +6935,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>19</v>
-      </c>
-      <c r="G234" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7485,13 +6959,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>273</v>
-      </c>
-      <c r="G235" t="s">
-        <v>274</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7511,13 +6983,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>19</v>
-      </c>
-      <c r="G236" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7537,13 +7007,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>273</v>
-      </c>
-      <c r="G237" t="s">
-        <v>274</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7563,13 +7031,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>19</v>
-      </c>
-      <c r="G238" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7589,13 +7055,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>273</v>
-      </c>
-      <c r="G239" t="s">
-        <v>274</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7615,13 +7079,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>19</v>
-      </c>
-      <c r="G240" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7641,13 +7103,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>273</v>
-      </c>
-      <c r="G241" t="s">
-        <v>274</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7667,13 +7127,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>19</v>
-      </c>
-      <c r="G242" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7693,13 +7151,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>273</v>
-      </c>
-      <c r="G243" t="s">
-        <v>274</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7719,13 +7175,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>19</v>
-      </c>
-      <c r="G244" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7745,13 +7199,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>273</v>
-      </c>
-      <c r="G245" t="s">
-        <v>274</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7771,13 +7223,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>19</v>
-      </c>
-      <c r="G246" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7797,13 +7247,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>273</v>
-      </c>
-      <c r="G247" t="s">
-        <v>274</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7823,13 +7271,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>19</v>
-      </c>
-      <c r="G248" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7849,13 +7295,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>273</v>
-      </c>
-      <c r="G249" t="s">
-        <v>274</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7875,13 +7319,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>135</v>
-      </c>
-      <c r="G250" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7901,13 +7343,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>293</v>
-      </c>
-      <c r="G251" t="s">
-        <v>294</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7927,13 +7367,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>19</v>
-      </c>
-      <c r="G252" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7953,13 +7391,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>293</v>
-      </c>
-      <c r="G253" t="s">
-        <v>294</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7979,13 +7415,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>19</v>
-      </c>
-      <c r="G254" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8005,13 +7439,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>293</v>
-      </c>
-      <c r="G255" t="s">
-        <v>294</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8031,13 +7463,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>19</v>
-      </c>
-      <c r="G256" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8057,13 +7487,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>293</v>
-      </c>
-      <c r="G257" t="s">
-        <v>294</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8083,13 +7511,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>19</v>
-      </c>
-      <c r="G258" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8109,13 +7535,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>293</v>
-      </c>
-      <c r="G259" t="s">
-        <v>294</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8135,13 +7559,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>19</v>
-      </c>
-      <c r="G260" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8161,13 +7583,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>293</v>
-      </c>
-      <c r="G261" t="s">
-        <v>294</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8187,13 +7607,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>19</v>
-      </c>
-      <c r="G262" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8213,13 +7631,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>293</v>
-      </c>
-      <c r="G263" t="s">
-        <v>294</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8239,13 +7655,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>19</v>
-      </c>
-      <c r="G264" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8265,13 +7679,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>293</v>
-      </c>
-      <c r="G265" t="s">
-        <v>294</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8291,13 +7703,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>135</v>
-      </c>
-      <c r="G266" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8317,13 +7727,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>19</v>
-      </c>
-      <c r="G267" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8343,13 +7751,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>135</v>
-      </c>
-      <c r="G268" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8369,13 +7775,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>19</v>
-      </c>
-      <c r="G269" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8395,13 +7799,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>135</v>
-      </c>
-      <c r="G270" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8421,13 +7823,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>19</v>
-      </c>
-      <c r="G271" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8447,13 +7847,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>135</v>
-      </c>
-      <c r="G272" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8473,13 +7871,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>19</v>
-      </c>
-      <c r="G273" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8499,13 +7895,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>135</v>
-      </c>
-      <c r="G274" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8525,13 +7919,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>19</v>
-      </c>
-      <c r="G275" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8551,13 +7943,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>135</v>
-      </c>
-      <c r="G276" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8577,13 +7967,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>19</v>
-      </c>
-      <c r="G277" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8603,13 +7991,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>135</v>
-      </c>
-      <c r="G278" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8629,13 +8015,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>19</v>
-      </c>
-      <c r="G279" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8655,13 +8039,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>135</v>
-      </c>
-      <c r="G280" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8681,13 +8063,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>19</v>
-      </c>
-      <c r="G281" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8707,13 +8087,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>135</v>
-      </c>
-      <c r="G282" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8733,13 +8111,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>19</v>
-      </c>
-      <c r="G283" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8759,13 +8135,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>135</v>
-      </c>
-      <c r="G284" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8785,13 +8159,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>19</v>
-      </c>
-      <c r="G285" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8811,13 +8183,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>135</v>
-      </c>
-      <c r="G286" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8837,13 +8207,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>19</v>
-      </c>
-      <c r="G287" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8863,13 +8231,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>135</v>
-      </c>
-      <c r="G288" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8889,13 +8255,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>19</v>
-      </c>
-      <c r="G289" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8915,13 +8279,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>135</v>
-      </c>
-      <c r="G290" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8941,13 +8303,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>19</v>
-      </c>
-      <c r="G291" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8967,13 +8327,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>135</v>
-      </c>
-      <c r="G292" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8993,13 +8351,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>19</v>
-      </c>
-      <c r="G293" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9019,13 +8375,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>135</v>
-      </c>
-      <c r="G294" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
